--- a/MSAMobApp/SCM Mobile App Document.xlsx
+++ b/MSAMobApp/SCM Mobile App Document.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="18530" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Site Map" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Task" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
   <si>
     <t>Home</t>
   </si>
@@ -176,6 +178,264 @@
   </si>
   <si>
     <t>Muon thao tac tren ma WH khac co the logout hoac chon Thay doi WH tren System</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Sever</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Server import excel</t>
+  </si>
+  <si>
+    <t>Dung mobile de khai bao barcode cho 1 item vao  server</t>
+  </si>
+  <si>
+    <t>Import vao server (G_StockMaster)-&gt; updayte xuong mobile (MobStockMasterItem)</t>
+  </si>
+  <si>
+    <t>MobStockMasterItem</t>
+  </si>
+  <si>
+    <t>G_StockMasterBarCode/G_StockMaster</t>
+  </si>
+  <si>
+    <t>update to mobile</t>
+  </si>
+  <si>
+    <t>Mobile scan New BarCode</t>
+  </si>
+  <si>
+    <t>Dung de quet item va nhap vao server, kiem tra xem co trung thi insert or created</t>
+  </si>
+  <si>
+    <t>Quet mobile, luu mobile (MobStockMasterItem), update len sever bang tam([G_StockMasterBarCode]), sau do update qua bang chinh (G_StockMaster)</t>
+  </si>
+  <si>
+    <t>[G_StockMasterBarCode]</t>
+  </si>
+  <si>
+    <t>kiem tra xem co ton tai hay kg, neu ton tai thi bo qua</t>
+  </si>
+  <si>
+    <t>Quet barcode transaction</t>
+  </si>
+  <si>
+    <t>Dung nhap , xuat ton thong qua thiet bi handHeld</t>
+  </si>
+  <si>
+    <t>Luu vao mobile DB -&gt; update len server</t>
+  </si>
+  <si>
+    <t>StockTrans/StockTransDetail</t>
+  </si>
+  <si>
+    <t>DataState</t>
+  </si>
+  <si>
+    <t>New:Moi tao</t>
+  </si>
+  <si>
+    <t>New:mobile</t>
+  </si>
+  <si>
+    <t>Post: da sync thanh cong, hoac post la tat ca tu server mang xuong</t>
+  </si>
+  <si>
+    <t>Post:server</t>
+  </si>
+  <si>
+    <t>lam the nao biet item dc lam tu mobile, can cu vao HID? tren server</t>
+  </si>
+  <si>
+    <t>cac item da tao tren server (trung barcode voi mob), =&gt; se over-write posted item tu server(cac item mobile dc xem nhu la cac item quet trung va loi, bi reject)</t>
+  </si>
+  <si>
+    <t>khi giao dich chi quan tam den cac item co trang thai posted (verified) trong master item</t>
+  </si>
+  <si>
+    <t>luu vao local</t>
+  </si>
+  <si>
+    <t>API to update Server</t>
+  </si>
+  <si>
+    <t>update local</t>
+  </si>
+  <si>
+    <t>update syncDate</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Web App Init</t>
+  </si>
+  <si>
+    <t>Khoi tao 1 Web site</t>
+  </si>
+  <si>
+    <t>Full Menu</t>
+  </si>
+  <si>
+    <t>Thiet ke menu</t>
+  </si>
+  <si>
+    <t>LoginDefault</t>
+  </si>
+  <si>
+    <t>Man hinh login mac dinh</t>
+  </si>
+  <si>
+    <t>Import Master Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Exel va chuc nang nhap </t>
+  </si>
+  <si>
+    <t>Export Excel</t>
+  </si>
+  <si>
+    <t>Xuat ra 1 tempalte</t>
+  </si>
+  <si>
+    <t>Stock Master Maintain</t>
+  </si>
+  <si>
+    <t>Thay doi cac thong tin cua stock maste</t>
+  </si>
+  <si>
+    <t>Scan Stock master</t>
+  </si>
+  <si>
+    <t>Scan va luu local</t>
+  </si>
+  <si>
+    <t>Sync Stock master</t>
+  </si>
+  <si>
+    <t>Sync stock master len server , update nguoc lai mobile, ghi nhan last sync data</t>
+  </si>
+  <si>
+    <t>Stock Trans (receive)</t>
+  </si>
+  <si>
+    <t>Save local</t>
+  </si>
+  <si>
+    <t>Sync Stock trans to server</t>
+  </si>
+  <si>
+    <t>Save Server (API)</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Khai bao thong tin ve cong ty (lien quan den barcode)</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Quan tri danh muc NM</t>
+  </si>
+  <si>
+    <t>Xuong SX</t>
+  </si>
+  <si>
+    <t>Quan tri danh muc cac xuong SX</t>
+  </si>
+  <si>
+    <t>WH / Store Maintain</t>
+  </si>
+  <si>
+    <t>Quan tri danh muc kho, bao gom khai bao cac khu vuc, cac ke</t>
+  </si>
+  <si>
+    <t>User Maintain</t>
+  </si>
+  <si>
+    <t>Quan tri nguoi dung va quyen</t>
+  </si>
+  <si>
+    <t>Login/Log off</t>
+  </si>
+  <si>
+    <t>Login CMS</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Open Stock</t>
+  </si>
+  <si>
+    <t>Khao bao 1 item va so du dau trong ky hien tai</t>
+  </si>
+  <si>
+    <t>Stock Receive</t>
+  </si>
+  <si>
+    <t>Nhap kho</t>
+  </si>
+  <si>
+    <t>Return SR</t>
+  </si>
+  <si>
+    <t>Tra hang cho NCC</t>
+  </si>
+  <si>
+    <t>Xuat hang</t>
+  </si>
+  <si>
+    <t>Return SI</t>
+  </si>
+  <si>
+    <t>Nhan lai hang xuat</t>
+  </si>
+  <si>
+    <t>Stock Transfer In/Out</t>
+  </si>
+  <si>
+    <t>Chuyen giua cac kho</t>
+  </si>
+  <si>
+    <t>Huy hang</t>
+  </si>
+  <si>
+    <t>Stock Count</t>
+  </si>
+  <si>
+    <t>Dem hang kiem ke</t>
+  </si>
+  <si>
+    <t>Closing stock</t>
+  </si>
+  <si>
+    <t>chuyen ky va mo so moi</t>
+  </si>
+  <si>
+    <t>Bao cao</t>
+  </si>
+  <si>
+    <t>Nhap /Xuat /Ton</t>
+  </si>
+  <si>
+    <t>Open+Nhap/Xuat/+Closing</t>
   </si>
 </sst>
 </file>
@@ -184,11 +444,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,28 +462,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,9 +480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +489,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +518,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -288,14 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -306,38 +551,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +571,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,85 +618,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,97 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,36 +809,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,16 +837,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,156 +879,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,7 +1384,7 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1399,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1410,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1424,6 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1438,6 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1455,6 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1466,7 @@
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1360,4 +1612,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="29.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="66.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="70.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="94.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7">
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" ht="29" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="29" spans="1:6">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="19.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="57.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>